--- a/biology/Médecine/Phalange_du_pied/Phalange_du_pied.xlsx
+++ b/biology/Médecine/Phalange_du_pied/Phalange_du_pied.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les phalanges du pied (ou phalanges des orteils ou os des doigts du pied) sont les quatorze os longs formant le squelette des orteils. Elles sont dans le prolongement de chaque métatarsien.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque orteil sauf le gros orteil ou hallux possède trois phalanges : une phalange proximale, une phalange moyenne et une phalange distale.
 L'hallux ne possède que deux phalanges : une proximale et une distale.
